--- a/hebrewOutputs/hebrewComparison_4.xlsx
+++ b/hebrewOutputs/hebrewComparison_4.xlsx
@@ -52,60 +52,66 @@
     <t>איפה הוא?</t>
   </si>
   <si>
+    <t>[?]other</t>
+  </si>
+  <si>
+    <t>שמי דוק דוקטור דוק.</t>
+  </si>
+  <si>
+    <t>אני הרופא שקיבל את הילד שלך במיון.</t>
+  </si>
+  <si>
+    <t>gives-med</t>
+  </si>
+  <si>
+    <t>כן (לא נשמע) איפה הוא עכשיו תגיד לי.</t>
+  </si>
+  <si>
+    <t>[?]med</t>
+  </si>
+  <si>
+    <t>gives-other</t>
+  </si>
+  <si>
+    <t>בוא נישב רגע, בוא נישב רגע.</t>
+  </si>
+  <si>
+    <t>orient</t>
+  </si>
+  <si>
+    <t>אה?</t>
+  </si>
+  <si>
+    <t>?bid</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>(לא נשמע).</t>
+  </si>
+  <si>
+    <t>unintel</t>
+  </si>
+  <si>
+    <t>רגע, הוא אכל משהו הוא שתה?</t>
+  </si>
+  <si>
+    <t>?other</t>
+  </si>
+  <si>
+    <t>יש כאן עוד משהו אתך?</t>
+  </si>
+  <si>
+    <t>trans</t>
+  </si>
+  <si>
+    <t>לא, לא, לא.</t>
+  </si>
+  <si>
     <t>disagree</t>
   </si>
   <si>
-    <t>שמי דוק דוקטור דוק.</t>
-  </si>
-  <si>
-    <t>אני הרופא שקיבל את הילד שלך במיון.</t>
-  </si>
-  <si>
-    <t>gives-med</t>
-  </si>
-  <si>
-    <t>כן (לא נשמע) איפה הוא עכשיו תגיד לי.</t>
-  </si>
-  <si>
-    <t>[?]med</t>
-  </si>
-  <si>
-    <t>unintel</t>
-  </si>
-  <si>
-    <t>בוא נישב רגע, בוא נישב רגע.</t>
-  </si>
-  <si>
-    <t>orient</t>
-  </si>
-  <si>
-    <t>אה?</t>
-  </si>
-  <si>
-    <t>?bid</t>
-  </si>
-  <si>
-    <t>(לא נשמע).</t>
-  </si>
-  <si>
-    <t>רגע, הוא אכל משהו הוא שתה?</t>
-  </si>
-  <si>
-    <t>?other</t>
-  </si>
-  <si>
-    <t>יש כאן עוד משהו אתך?</t>
-  </si>
-  <si>
-    <t>[?]other</t>
-  </si>
-  <si>
-    <t>לא, לא, לא.</t>
-  </si>
-  <si>
-    <t>gives-other</t>
-  </si>
-  <si>
     <t>אתה זה שהביא אותו למיון?</t>
   </si>
   <si>
@@ -115,6 +121,9 @@
     <t>למה הבאת אותו מה היה אתו?</t>
   </si>
   <si>
+    <t>?opinion</t>
+  </si>
+  <si>
     <t xml:space="preserve">הוא היה מיובש לגמרי הוא הקיא בלילה, </t>
   </si>
   <si>
@@ -124,9 +133,6 @@
     <t>זה...</t>
   </si>
   <si>
-    <t>trans</t>
-  </si>
-  <si>
     <t>אנחנו עשינו לו איזשהם בדיקות מסוימות, אה.</t>
   </si>
   <si>
@@ -136,6 +142,9 @@
     <t>concern</t>
   </si>
   <si>
+    <t>checks</t>
+  </si>
+  <si>
     <t>אה.</t>
   </si>
   <si>
@@ -154,9 +163,6 @@
     <t>אוקי.</t>
   </si>
   <si>
-    <t>bc</t>
-  </si>
-  <si>
     <t>agree</t>
   </si>
   <si>
@@ -181,12 +187,6 @@
     <t>מה חשבת שיש לו?</t>
   </si>
   <si>
-    <t>?opinion</t>
-  </si>
-  <si>
-    <t>checks</t>
-  </si>
-  <si>
     <t>לא חשבתי אני לקחתי אותו לבית חולים זה לא עבודה שלי.</t>
   </si>
   <si>
@@ -379,10 +379,10 @@
     <t>c-l/s-p/s</t>
   </si>
   <si>
+    <t>approve</t>
+  </si>
+  <si>
     <t xml:space="preserve">אה מכיר אנשים שעשו את זה ופשוט ראו איך הילדים האלה נראים בהמשך התהליך, בסוף התהליך והגיעו למסקנה שחיים עם זה וחיים עם זה גם בצורה טובה, </t>
-  </si>
-  <si>
-    <t>self-dis</t>
   </si>
   <si>
     <t xml:space="preserve">נכון צריך להתאמץ להיות קצת יותר מאוזנים כמו שמקפידים על שיעורי בית צריך להקפיד על משאבה שעובדת כמו שצריך, </t>
@@ -894,26 +894,26 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
@@ -921,13 +921,13 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -938,34 +938,34 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
@@ -976,29 +976,29 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
@@ -1020,13 +1020,13 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1037,12 +1037,12 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
@@ -1053,84 +1053,84 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
         <v>17</v>
@@ -1141,18 +1141,18 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1199,10 +1199,10 @@
         <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1213,18 +1213,18 @@
         <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1251,13 +1251,13 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1276,10 +1276,10 @@
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1290,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1323,7 +1323,7 @@
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1331,10 +1331,10 @@
         <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1342,10 +1342,10 @@
         <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1353,10 +1353,10 @@
         <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1375,10 +1375,10 @@
         <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1386,7 +1386,7 @@
         <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C60" t="s">
         <v>15</v>
@@ -1397,10 +1397,10 @@
         <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C61" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1419,10 +1419,10 @@
         <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1444,7 +1444,7 @@
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1499,7 +1499,7 @@
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1521,7 +1521,7 @@
         <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1554,7 +1554,7 @@
         <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1562,7 +1562,7 @@
         <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C76" t="s">
         <v>15</v>
@@ -1609,7 +1609,7 @@
         <v>94</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1620,7 +1620,7 @@
         <v>96</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1628,10 +1628,10 @@
         <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1639,10 +1639,10 @@
         <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C83" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1650,10 +1650,10 @@
         <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1664,7 +1664,7 @@
         <v>94</v>
       </c>
       <c r="C85" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1672,10 +1672,10 @@
         <v>101</v>
       </c>
       <c r="B86" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C86" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1694,7 +1694,7 @@
         <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C88" t="s">
         <v>9</v>
@@ -1702,13 +1702,13 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1719,7 +1719,7 @@
         <v>105</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1730,7 +1730,7 @@
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1738,10 +1738,10 @@
         <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C92" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1752,7 +1752,7 @@
         <v>109</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1763,7 +1763,7 @@
         <v>22</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1771,10 +1771,10 @@
         <v>111</v>
       </c>
       <c r="B95" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C95" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1793,10 +1793,10 @@
         <v>113</v>
       </c>
       <c r="B97" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1804,10 +1804,10 @@
         <v>114</v>
       </c>
       <c r="B98" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1815,7 +1815,7 @@
         <v>115</v>
       </c>
       <c r="B99" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C99" t="s">
         <v>17</v>
@@ -1826,10 +1826,10 @@
         <v>116</v>
       </c>
       <c r="B100" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C100" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1837,7 +1837,7 @@
         <v>117</v>
       </c>
       <c r="B101" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C101" t="s">
         <v>15</v>
@@ -1862,18 +1862,18 @@
         <v>120</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B104" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C104" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1895,7 +1895,7 @@
         <v>120</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1903,7 +1903,7 @@
         <v>126</v>
       </c>
       <c r="B107" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C107" t="s">
         <v>15</v>
